--- a/scrapping/Anais/Naturel & Aromatherapie/Naturel&Aromatherapie_AnaisProduct.xlsx
+++ b/scrapping/Anais/Naturel & Aromatherapie/Naturel&Aromatherapie_AnaisProduct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="546">
   <si>
     <t>Produit</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Lien</t>
+  </si>
+  <si>
+    <t>Image</t>
   </si>
   <si>
     <t>ALMAFLORE AROMAX ROLL ON MIGRAINE 10 ML</t>
@@ -1900,6 +1903,294 @@
   </si>
   <si>
     <t>https://anais.tn/produit/vital-phytothera-huile-minceur-60ml/</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/anais-almaflore-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/bain-dhuile-500x500-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-d-ortie-10-ml-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/para-anais-amande-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/para-anais-amande-douce-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/anais-parapharmacie-argan-min.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/para-anais-argan-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-d-ortie-30-ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-d-ail-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/dail-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/huile-de-bourrache-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-carthame-10ml-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-essentielle-de-clou-de-girofle-10ml-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-essentielle-de-tea-tree-bio-10ml-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/anais-para-fenugrec-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-fenugrec-50ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-germes-de-ble-10-ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-germe-de-ble-50ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/jojoba-10ml-min-1.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-jojoba-bio-50ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-lin-10-ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-lin-50-ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/lG3Dogmcr32iDsX9PjKJlIecQH49tHSYBhjzieCQ-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-moutarde-50-ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-nigelle-10-ml-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/huile-de-nigelle-50ml-almaflore-almaflore-huiles-serums.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-noisette-10ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-noisette-50-ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-noix-de-coco-100ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/download.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-noyau-d-abricot-10-ml-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/anais-parapharmacie-huile-abricot-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/para-anais-figue-de-barbarie-min.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-pepin-de-courge-50-ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/ALMAFLORE-HUILE-DE-RICIN-10ML.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-ricin-10-ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-rose-musquee-bio-10ml-paraboutik-parapharmacie.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/huile-vegetale-de-sesame-10ml-bio-orient.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-huile-de-sesame-50-ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/anais-eucalyptus-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/anais-parapharmacie-arbre-a-the-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/huile-essentielle-eucalyptus-citronne-10ml-almaflore-almaflore-huiles-serums.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/unnamed-8-e1618843466978.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/citron-jaune-removebg-preview-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/unnamed-6-e1618842228876.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/unnamed-10-e1618843914195.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/unnamed-9-e1618843626841.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/unnamed-4-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/unnamed-5-e1618842065637.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/unnamed-3-1-e1618841255871.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/unnamed-7-e1618842833650.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/unnamed-2-2-e1618840619559.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/almaflore-relaxflore-huile-de-massage-relaxant.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/soin-pour-cheveux-90ml-bio-orient.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-dabricot-e1589807582986.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-dail.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-daloe-vera.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-damande-amere.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-damande-douce-biologique.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-d-argan-biologique.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-d-avocat.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-dortie.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-de-bourrache.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-de-carotte.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-de-chardon-marie.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-de-cresson.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-de-fenugrec.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-de-germes-de-ble-10ml90ml.png</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-de-jojoba-biologique.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-de-lentisque.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-de-lin.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-de-moutarde-biologique.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-de-nigelle.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/unnamed-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/huile-vegetale-de-noisette-90ml-bio-orient.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/huile-vegetale-de-noix-de-coco-90ml-bio-orient-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/huile-vegetale-de-pepins-de-figues-de-barbarie-bio-10ml-bio-orient.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/bio-orient-huile-de-pepin-de-raisin-10ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/huile-vegetale-de-pepins-de-raisin-90ml-bio-orient.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/huile-vegetale-bio-orient-huile-de-ricin-10-ml-bio-orient-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/05/huile-de-souchet.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/huile-essentielle-d-eucalyptus-10ml-bio-orient.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/BIO-ORIENT-Huile-essentielle-de-Arbre-a-The10ml-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/unnamed-1-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/BIO-ORIENT-Huile-essentielle-de-Cannelle-10ml-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/BIO-ORIENT-Huile-essentielle-de-Citron-Jaune-10ml-compressed-1.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/BIO-ORIENT-Huile-essentielle-de-Clou-de-Girofle-10ml-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/bio-orient-huile-essentielle-de-lavande-10ml.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/07/BIO-ORIENT-Huile-Essentielle-de-Pamplemousse-10-ml-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/lierac-sensorielle-huile-seche-tonifiante-100ml-f1200-f1200-min.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/08/PHYTOREMED-TISANE-MINCEUR-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/08/PHYTOREMED-TRANSITLAXATIVE-compressed.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/11/revital-10ml-fr-scaled.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/10/compressed-d7o2.jpg</t>
+  </si>
+  <si>
+    <t>https://anais.tn/wp-content/uploads/2020/08/3572-phytothera-huile-minceur-60ml-500x500-1.jpg</t>
   </si>
 </sst>
 </file>
@@ -2270,13 +2561,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2289,1779 +2580,2249 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" t="s">
+        <v>247</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" t="s">
+        <v>248</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" t="s">
+        <v>249</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" t="s">
+        <v>251</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" t="s">
+        <v>252</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" t="s">
+        <v>253</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" t="s">
+        <v>258</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" t="s">
+        <v>259</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" t="s">
+        <v>260</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" t="s">
+        <v>261</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" t="s">
+        <v>263</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" t="s">
+        <v>264</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" t="s">
+        <v>265</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" t="s">
+        <v>267</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" t="s">
+        <v>269</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" t="s">
+        <v>270</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" t="s">
+        <v>271</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E56" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" t="s">
+        <v>272</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" t="s">
+        <v>273</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" t="s">
+        <v>274</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" t="s">
+        <v>275</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" t="s">
+        <v>276</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" t="s">
+        <v>277</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" t="s">
+        <v>278</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" t="s">
+        <v>279</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65" t="s">
+        <v>280</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" t="s">
+        <v>281</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" t="s">
+        <v>282</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" t="s">
+        <v>283</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" t="s">
+        <v>284</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" t="s">
+        <v>285</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" t="s">
+        <v>286</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" t="s">
+        <v>287</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" t="s">
+        <v>288</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" t="s">
+        <v>289</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" t="s">
+        <v>290</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>189</v>
+      </c>
+      <c r="C76" t="s">
+        <v>291</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" t="s">
+        <v>292</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" t="s">
+        <v>293</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79" t="s">
+        <v>294</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" t="s">
+        <v>295</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" t="s">
+        <v>296</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>151</v>
+      </c>
+      <c r="C82" t="s">
+        <v>297</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" t="s">
+        <v>298</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>179</v>
+      </c>
+      <c r="C84" t="s">
+        <v>299</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C85" t="s">
+        <v>300</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" t="s">
+        <v>301</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>195</v>
+      </c>
+      <c r="C87" t="s">
+        <v>302</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" t="s">
+        <v>303</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" t="s">
+        <v>304</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>198</v>
+      </c>
+      <c r="C90" t="s">
+        <v>305</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91" t="s">
+        <v>306</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" t="s">
+        <v>307</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" t="s">
+        <v>308</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" t="s">
+        <v>309</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" t="s">
+        <v>245</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" t="s">
+        <v>310</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>205</v>
+      </c>
+      <c r="C97" t="s">
+        <v>311</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98" t="s">
+        <v>312</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" t="s">
+        <v>313</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100" t="s">
+        <v>314</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" t="s">
+        <v>315</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>209</v>
+      </c>
+      <c r="C102" t="s">
+        <v>316</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>210</v>
+      </c>
+      <c r="C103" t="s">
+        <v>317</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104" t="s">
+        <v>318</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="s">
+        <v>319</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" t="s">
+        <v>320</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>214</v>
+      </c>
+      <c r="C107" t="s">
+        <v>321</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" t="s">
+        <v>317</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" t="s">
+        <v>212</v>
+      </c>
+      <c r="C109" t="s">
+        <v>319</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>214</v>
+      </c>
+      <c r="C110" t="s">
+        <v>322</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>215</v>
+      </c>
+      <c r="C111" t="s">
+        <v>323</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>216</v>
+      </c>
+      <c r="C112" t="s">
+        <v>324</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E112" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>217</v>
+      </c>
+      <c r="C113" t="s">
+        <v>325</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E113" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>217</v>
+      </c>
+      <c r="C114" t="s">
+        <v>326</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E114" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" t="s">
+        <v>217</v>
+      </c>
+      <c r="C115" t="s">
+        <v>327</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>217</v>
+      </c>
+      <c r="C116" t="s">
+        <v>328</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" t="s">
+        <v>218</v>
+      </c>
+      <c r="C117" t="s">
+        <v>329</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>219</v>
+      </c>
+      <c r="C118" t="s">
+        <v>330</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
         <v>122</v>
       </c>
-      <c r="C2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B119" t="s">
+        <v>145</v>
+      </c>
+      <c r="C119" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" t="s">
-        <v>231</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" t="s">
-        <v>232</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" t="s">
-        <v>233</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" t="s">
-        <v>235</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" t="s">
-        <v>236</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" t="s">
-        <v>237</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" t="s">
-        <v>238</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" t="s">
-        <v>239</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" t="s">
-        <v>240</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" t="s">
-        <v>241</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" t="s">
-        <v>242</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" t="s">
-        <v>243</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" t="s">
-        <v>244</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" t="s">
-        <v>245</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" t="s">
-        <v>246</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" t="s">
-        <v>247</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" t="s">
-        <v>248</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" t="s">
-        <v>248</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" t="s">
-        <v>249</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" t="s">
-        <v>250</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" t="s">
-        <v>251</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" t="s">
-        <v>252</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="s">
-        <v>156</v>
-      </c>
-      <c r="C39" t="s">
-        <v>253</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" t="s">
-        <v>254</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" t="s">
-        <v>255</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="s">
-        <v>159</v>
-      </c>
-      <c r="C42" t="s">
-        <v>256</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" t="s">
-        <v>257</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" t="s">
-        <v>258</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" t="s">
-        <v>259</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" t="s">
-        <v>163</v>
-      </c>
-      <c r="C46" t="s">
-        <v>260</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" t="s">
-        <v>261</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" t="s">
-        <v>262</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" t="s">
-        <v>263</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50" t="s">
-        <v>264</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" t="s">
-        <v>168</v>
-      </c>
-      <c r="C51" t="s">
-        <v>265</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" t="s">
-        <v>169</v>
-      </c>
-      <c r="C52" t="s">
-        <v>266</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="s">
-        <v>170</v>
-      </c>
-      <c r="C53" t="s">
-        <v>267</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" t="s">
-        <v>268</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" t="s">
-        <v>172</v>
-      </c>
-      <c r="C55" t="s">
-        <v>269</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" t="s">
-        <v>270</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" t="s">
-        <v>174</v>
-      </c>
-      <c r="C57" t="s">
-        <v>271</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" t="s">
-        <v>175</v>
-      </c>
-      <c r="C58" t="s">
-        <v>272</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" t="s">
-        <v>176</v>
-      </c>
-      <c r="C59" t="s">
-        <v>273</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" t="s">
-        <v>177</v>
-      </c>
-      <c r="C60" t="s">
-        <v>274</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C61" t="s">
-        <v>275</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" t="s">
-        <v>177</v>
-      </c>
-      <c r="C62" t="s">
-        <v>276</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" t="s">
-        <v>178</v>
-      </c>
-      <c r="C63" t="s">
-        <v>277</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" t="s">
-        <v>179</v>
-      </c>
-      <c r="C64" t="s">
-        <v>278</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" t="s">
-        <v>180</v>
-      </c>
-      <c r="C65" t="s">
-        <v>279</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" t="s">
-        <v>181</v>
-      </c>
-      <c r="C66" t="s">
-        <v>280</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67" t="s">
-        <v>281</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" t="s">
-        <v>183</v>
-      </c>
-      <c r="C68" t="s">
-        <v>282</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" t="s">
-        <v>184</v>
-      </c>
-      <c r="C69" t="s">
-        <v>283</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" t="s">
-        <v>185</v>
-      </c>
-      <c r="C70" t="s">
-        <v>284</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" t="s">
-        <v>176</v>
-      </c>
-      <c r="C71" t="s">
-        <v>285</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" t="s">
-        <v>177</v>
-      </c>
-      <c r="C72" t="s">
-        <v>286</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" t="s">
-        <v>186</v>
-      </c>
-      <c r="C73" t="s">
-        <v>287</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" t="s">
-        <v>154</v>
-      </c>
-      <c r="C74" t="s">
-        <v>288</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" t="s">
-        <v>187</v>
-      </c>
-      <c r="C75" t="s">
-        <v>289</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" t="s">
-        <v>188</v>
-      </c>
-      <c r="C76" t="s">
-        <v>290</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" t="s">
-        <v>189</v>
-      </c>
-      <c r="C77" t="s">
-        <v>291</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" t="s">
-        <v>175</v>
-      </c>
-      <c r="C78" t="s">
-        <v>292</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" t="s">
-        <v>170</v>
-      </c>
-      <c r="C79" t="s">
-        <v>293</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" t="s">
-        <v>190</v>
-      </c>
-      <c r="C80" t="s">
-        <v>294</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" t="s">
-        <v>191</v>
-      </c>
-      <c r="C81" t="s">
-        <v>295</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" t="s">
-        <v>150</v>
-      </c>
-      <c r="C82" t="s">
-        <v>296</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" t="s">
-        <v>192</v>
-      </c>
-      <c r="C83" t="s">
-        <v>297</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" t="s">
-        <v>178</v>
-      </c>
-      <c r="C84" t="s">
-        <v>298</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" t="s">
-        <v>193</v>
-      </c>
-      <c r="C85" t="s">
-        <v>299</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" t="s">
-        <v>142</v>
-      </c>
-      <c r="C86" t="s">
-        <v>300</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" t="s">
-        <v>301</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" t="s">
-        <v>195</v>
-      </c>
-      <c r="C88" t="s">
-        <v>302</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" t="s">
-        <v>196</v>
-      </c>
-      <c r="C89" t="s">
-        <v>303</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" t="s">
-        <v>197</v>
-      </c>
-      <c r="C90" t="s">
-        <v>304</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" t="s">
-        <v>198</v>
-      </c>
-      <c r="C91" t="s">
-        <v>305</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" t="s">
-        <v>199</v>
-      </c>
-      <c r="C92" t="s">
-        <v>306</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" t="s">
-        <v>200</v>
-      </c>
-      <c r="C93" t="s">
-        <v>307</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" t="s">
-        <v>201</v>
-      </c>
-      <c r="C94" t="s">
-        <v>308</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" t="s">
-        <v>202</v>
-      </c>
-      <c r="C95" t="s">
-        <v>244</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" t="s">
-        <v>203</v>
-      </c>
-      <c r="C96" t="s">
-        <v>309</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" t="s">
-        <v>204</v>
-      </c>
-      <c r="C97" t="s">
-        <v>310</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" t="s">
-        <v>205</v>
-      </c>
-      <c r="C98" t="s">
-        <v>311</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" t="s">
-        <v>203</v>
-      </c>
-      <c r="C99" t="s">
-        <v>312</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" t="s">
-        <v>206</v>
-      </c>
-      <c r="C100" t="s">
-        <v>313</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" t="s">
-        <v>207</v>
-      </c>
-      <c r="C101" t="s">
-        <v>314</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102" t="s">
-        <v>208</v>
-      </c>
-      <c r="C102" t="s">
-        <v>315</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" t="s">
-        <v>209</v>
-      </c>
-      <c r="C103" t="s">
-        <v>316</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104" t="s">
-        <v>210</v>
-      </c>
-      <c r="C104" t="s">
-        <v>317</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" t="s">
-        <v>211</v>
-      </c>
-      <c r="C105" t="s">
-        <v>318</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106" t="s">
-        <v>212</v>
-      </c>
-      <c r="C106" t="s">
-        <v>319</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" t="s">
-        <v>213</v>
-      </c>
-      <c r="C107" t="s">
-        <v>320</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" t="s">
-        <v>209</v>
-      </c>
-      <c r="C108" t="s">
-        <v>316</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" t="s">
-        <v>211</v>
-      </c>
-      <c r="C109" t="s">
-        <v>318</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" t="s">
-        <v>213</v>
-      </c>
-      <c r="C110" t="s">
-        <v>321</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" t="s">
-        <v>214</v>
-      </c>
-      <c r="C111" t="s">
-        <v>322</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112" t="s">
-        <v>215</v>
-      </c>
-      <c r="C112" t="s">
-        <v>323</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" t="s">
-        <v>216</v>
-      </c>
-      <c r="C113" t="s">
-        <v>324</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>116</v>
-      </c>
-      <c r="B114" t="s">
-        <v>216</v>
-      </c>
-      <c r="C114" t="s">
-        <v>325</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>117</v>
-      </c>
-      <c r="B115" t="s">
-        <v>216</v>
-      </c>
-      <c r="C115" t="s">
-        <v>326</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116" t="s">
-        <v>216</v>
-      </c>
-      <c r="C116" t="s">
-        <v>327</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>119</v>
-      </c>
-      <c r="B117" t="s">
-        <v>217</v>
-      </c>
-      <c r="C117" t="s">
-        <v>328</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" t="s">
-        <v>218</v>
-      </c>
-      <c r="C118" t="s">
-        <v>329</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119" t="s">
-        <v>144</v>
-      </c>
-      <c r="C119" t="s">
-        <v>330</v>
-      </c>
       <c r="D119" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="D37" r:id="rId36"/>
-    <hyperlink ref="D38" r:id="rId37"/>
-    <hyperlink ref="D39" r:id="rId38"/>
-    <hyperlink ref="D40" r:id="rId39"/>
-    <hyperlink ref="D41" r:id="rId40"/>
-    <hyperlink ref="D42" r:id="rId41"/>
-    <hyperlink ref="D43" r:id="rId42"/>
-    <hyperlink ref="D44" r:id="rId43"/>
-    <hyperlink ref="D45" r:id="rId44"/>
-    <hyperlink ref="D46" r:id="rId45"/>
-    <hyperlink ref="D47" r:id="rId46"/>
-    <hyperlink ref="D48" r:id="rId47"/>
-    <hyperlink ref="D49" r:id="rId48"/>
-    <hyperlink ref="D50" r:id="rId49"/>
-    <hyperlink ref="D51" r:id="rId50"/>
-    <hyperlink ref="D52" r:id="rId51"/>
-    <hyperlink ref="D53" r:id="rId52"/>
-    <hyperlink ref="D54" r:id="rId53"/>
-    <hyperlink ref="D55" r:id="rId54"/>
-    <hyperlink ref="D56" r:id="rId55"/>
-    <hyperlink ref="D57" r:id="rId56"/>
-    <hyperlink ref="D58" r:id="rId57"/>
-    <hyperlink ref="D59" r:id="rId58"/>
-    <hyperlink ref="D60" r:id="rId59"/>
-    <hyperlink ref="D61" r:id="rId60"/>
-    <hyperlink ref="D62" r:id="rId61"/>
-    <hyperlink ref="D63" r:id="rId62"/>
-    <hyperlink ref="D64" r:id="rId63"/>
-    <hyperlink ref="D65" r:id="rId64"/>
-    <hyperlink ref="D66" r:id="rId65"/>
-    <hyperlink ref="D67" r:id="rId66"/>
-    <hyperlink ref="D68" r:id="rId67"/>
-    <hyperlink ref="D69" r:id="rId68"/>
-    <hyperlink ref="D70" r:id="rId69"/>
-    <hyperlink ref="D71" r:id="rId70"/>
-    <hyperlink ref="D72" r:id="rId71"/>
-    <hyperlink ref="D73" r:id="rId72"/>
-    <hyperlink ref="D74" r:id="rId73"/>
-    <hyperlink ref="D75" r:id="rId74"/>
-    <hyperlink ref="D76" r:id="rId75"/>
-    <hyperlink ref="D77" r:id="rId76"/>
-    <hyperlink ref="D78" r:id="rId77"/>
-    <hyperlink ref="D79" r:id="rId78"/>
-    <hyperlink ref="D80" r:id="rId79"/>
-    <hyperlink ref="D81" r:id="rId80"/>
-    <hyperlink ref="D82" r:id="rId81"/>
-    <hyperlink ref="D83" r:id="rId82"/>
-    <hyperlink ref="D84" r:id="rId83"/>
-    <hyperlink ref="D85" r:id="rId84"/>
-    <hyperlink ref="D86" r:id="rId85"/>
-    <hyperlink ref="D87" r:id="rId86"/>
-    <hyperlink ref="D88" r:id="rId87"/>
-    <hyperlink ref="D89" r:id="rId88"/>
-    <hyperlink ref="D90" r:id="rId89"/>
-    <hyperlink ref="D91" r:id="rId90"/>
-    <hyperlink ref="D92" r:id="rId91"/>
-    <hyperlink ref="D93" r:id="rId92"/>
-    <hyperlink ref="D94" r:id="rId93"/>
-    <hyperlink ref="D95" r:id="rId94"/>
-    <hyperlink ref="D96" r:id="rId95"/>
-    <hyperlink ref="D97" r:id="rId96"/>
-    <hyperlink ref="D98" r:id="rId97"/>
-    <hyperlink ref="D99" r:id="rId98"/>
-    <hyperlink ref="D100" r:id="rId99"/>
-    <hyperlink ref="D101" r:id="rId100"/>
-    <hyperlink ref="D102" r:id="rId101"/>
-    <hyperlink ref="D103" r:id="rId102"/>
-    <hyperlink ref="D104" r:id="rId103"/>
-    <hyperlink ref="D105" r:id="rId104"/>
-    <hyperlink ref="D106" r:id="rId105"/>
-    <hyperlink ref="D107" r:id="rId106"/>
-    <hyperlink ref="D108" r:id="rId107"/>
-    <hyperlink ref="D109" r:id="rId108"/>
-    <hyperlink ref="D110" r:id="rId109"/>
-    <hyperlink ref="D111" r:id="rId110"/>
-    <hyperlink ref="D112" r:id="rId111"/>
-    <hyperlink ref="D113" r:id="rId112"/>
-    <hyperlink ref="D114" r:id="rId113"/>
-    <hyperlink ref="D115" r:id="rId114"/>
-    <hyperlink ref="D116" r:id="rId115"/>
-    <hyperlink ref="D117" r:id="rId116"/>
-    <hyperlink ref="D118" r:id="rId117"/>
-    <hyperlink ref="D119" r:id="rId118"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId5"/>
+    <hyperlink ref="D5" r:id="rId6"/>
+    <hyperlink ref="E5" r:id="rId7"/>
+    <hyperlink ref="D6" r:id="rId8"/>
+    <hyperlink ref="E6" r:id="rId9"/>
+    <hyperlink ref="D7" r:id="rId10"/>
+    <hyperlink ref="E7" r:id="rId11"/>
+    <hyperlink ref="D8" r:id="rId12"/>
+    <hyperlink ref="E8" r:id="rId13"/>
+    <hyperlink ref="D9" r:id="rId14"/>
+    <hyperlink ref="E9" r:id="rId15"/>
+    <hyperlink ref="D10" r:id="rId16"/>
+    <hyperlink ref="E10" r:id="rId17"/>
+    <hyperlink ref="D11" r:id="rId18"/>
+    <hyperlink ref="E11" r:id="rId19"/>
+    <hyperlink ref="D12" r:id="rId20"/>
+    <hyperlink ref="E12" r:id="rId21"/>
+    <hyperlink ref="D13" r:id="rId22"/>
+    <hyperlink ref="E13" r:id="rId23"/>
+    <hyperlink ref="D14" r:id="rId24"/>
+    <hyperlink ref="E14" r:id="rId25"/>
+    <hyperlink ref="D15" r:id="rId26"/>
+    <hyperlink ref="E15" r:id="rId27"/>
+    <hyperlink ref="D16" r:id="rId28"/>
+    <hyperlink ref="E16" r:id="rId29"/>
+    <hyperlink ref="D17" r:id="rId30"/>
+    <hyperlink ref="E17" r:id="rId31"/>
+    <hyperlink ref="D18" r:id="rId32"/>
+    <hyperlink ref="E18" r:id="rId33"/>
+    <hyperlink ref="D19" r:id="rId34"/>
+    <hyperlink ref="E19" r:id="rId35"/>
+    <hyperlink ref="D20" r:id="rId36"/>
+    <hyperlink ref="E20" r:id="rId37"/>
+    <hyperlink ref="D21" r:id="rId38"/>
+    <hyperlink ref="E21" r:id="rId39"/>
+    <hyperlink ref="D22" r:id="rId40"/>
+    <hyperlink ref="E22" r:id="rId41"/>
+    <hyperlink ref="D23" r:id="rId42"/>
+    <hyperlink ref="E23" r:id="rId43"/>
+    <hyperlink ref="D24" r:id="rId44"/>
+    <hyperlink ref="E24" r:id="rId45"/>
+    <hyperlink ref="D25" r:id="rId46"/>
+    <hyperlink ref="E25" r:id="rId47"/>
+    <hyperlink ref="D26" r:id="rId48"/>
+    <hyperlink ref="E26" r:id="rId49"/>
+    <hyperlink ref="D27" r:id="rId50"/>
+    <hyperlink ref="E27" r:id="rId51"/>
+    <hyperlink ref="D28" r:id="rId52"/>
+    <hyperlink ref="E28" r:id="rId53"/>
+    <hyperlink ref="D29" r:id="rId54"/>
+    <hyperlink ref="E29" r:id="rId55"/>
+    <hyperlink ref="D30" r:id="rId56"/>
+    <hyperlink ref="E30" r:id="rId57"/>
+    <hyperlink ref="D31" r:id="rId58"/>
+    <hyperlink ref="E31" r:id="rId59"/>
+    <hyperlink ref="D32" r:id="rId60"/>
+    <hyperlink ref="E32" r:id="rId61"/>
+    <hyperlink ref="D33" r:id="rId62"/>
+    <hyperlink ref="E33" r:id="rId63"/>
+    <hyperlink ref="D34" r:id="rId64"/>
+    <hyperlink ref="E34" r:id="rId65"/>
+    <hyperlink ref="D35" r:id="rId66"/>
+    <hyperlink ref="E35" r:id="rId67"/>
+    <hyperlink ref="D36" r:id="rId68"/>
+    <hyperlink ref="E36" r:id="rId69"/>
+    <hyperlink ref="D37" r:id="rId70"/>
+    <hyperlink ref="E37" r:id="rId71"/>
+    <hyperlink ref="D38" r:id="rId72"/>
+    <hyperlink ref="E38" r:id="rId73"/>
+    <hyperlink ref="D39" r:id="rId74"/>
+    <hyperlink ref="E39" r:id="rId75"/>
+    <hyperlink ref="D40" r:id="rId76"/>
+    <hyperlink ref="E40" r:id="rId77"/>
+    <hyperlink ref="D41" r:id="rId78"/>
+    <hyperlink ref="E41" r:id="rId79"/>
+    <hyperlink ref="D42" r:id="rId80"/>
+    <hyperlink ref="E42" r:id="rId81"/>
+    <hyperlink ref="D43" r:id="rId82"/>
+    <hyperlink ref="E43" r:id="rId83"/>
+    <hyperlink ref="D44" r:id="rId84"/>
+    <hyperlink ref="E44" r:id="rId85"/>
+    <hyperlink ref="D45" r:id="rId86"/>
+    <hyperlink ref="E45" r:id="rId87"/>
+    <hyperlink ref="D46" r:id="rId88"/>
+    <hyperlink ref="E46" r:id="rId89"/>
+    <hyperlink ref="D47" r:id="rId90"/>
+    <hyperlink ref="E47" r:id="rId91"/>
+    <hyperlink ref="D48" r:id="rId92"/>
+    <hyperlink ref="E48" r:id="rId93"/>
+    <hyperlink ref="D49" r:id="rId94"/>
+    <hyperlink ref="E49" r:id="rId95"/>
+    <hyperlink ref="D50" r:id="rId96"/>
+    <hyperlink ref="E50" r:id="rId97"/>
+    <hyperlink ref="D51" r:id="rId98"/>
+    <hyperlink ref="E51" r:id="rId99"/>
+    <hyperlink ref="D52" r:id="rId100"/>
+    <hyperlink ref="E52" r:id="rId101"/>
+    <hyperlink ref="D53" r:id="rId102"/>
+    <hyperlink ref="E53" r:id="rId103"/>
+    <hyperlink ref="D54" r:id="rId104"/>
+    <hyperlink ref="E54" r:id="rId105"/>
+    <hyperlink ref="D55" r:id="rId106"/>
+    <hyperlink ref="E55" r:id="rId107"/>
+    <hyperlink ref="D56" r:id="rId108"/>
+    <hyperlink ref="D57" r:id="rId109"/>
+    <hyperlink ref="E57" r:id="rId110"/>
+    <hyperlink ref="D58" r:id="rId111"/>
+    <hyperlink ref="E58" r:id="rId112"/>
+    <hyperlink ref="D59" r:id="rId113"/>
+    <hyperlink ref="E59" r:id="rId114"/>
+    <hyperlink ref="D60" r:id="rId115"/>
+    <hyperlink ref="E60" r:id="rId116"/>
+    <hyperlink ref="D61" r:id="rId117"/>
+    <hyperlink ref="E61" r:id="rId118"/>
+    <hyperlink ref="D62" r:id="rId119"/>
+    <hyperlink ref="E62" r:id="rId120"/>
+    <hyperlink ref="D63" r:id="rId121"/>
+    <hyperlink ref="E63" r:id="rId122"/>
+    <hyperlink ref="D64" r:id="rId123"/>
+    <hyperlink ref="E64" r:id="rId124"/>
+    <hyperlink ref="D65" r:id="rId125"/>
+    <hyperlink ref="E65" r:id="rId126"/>
+    <hyperlink ref="D66" r:id="rId127"/>
+    <hyperlink ref="E66" r:id="rId128"/>
+    <hyperlink ref="D67" r:id="rId129"/>
+    <hyperlink ref="E67" r:id="rId130"/>
+    <hyperlink ref="D68" r:id="rId131"/>
+    <hyperlink ref="E68" r:id="rId132"/>
+    <hyperlink ref="D69" r:id="rId133"/>
+    <hyperlink ref="E69" r:id="rId134"/>
+    <hyperlink ref="D70" r:id="rId135"/>
+    <hyperlink ref="E70" r:id="rId136"/>
+    <hyperlink ref="D71" r:id="rId137"/>
+    <hyperlink ref="E71" r:id="rId138"/>
+    <hyperlink ref="D72" r:id="rId139"/>
+    <hyperlink ref="E72" r:id="rId140"/>
+    <hyperlink ref="D73" r:id="rId141"/>
+    <hyperlink ref="E73" r:id="rId142"/>
+    <hyperlink ref="D74" r:id="rId143"/>
+    <hyperlink ref="E74" r:id="rId144"/>
+    <hyperlink ref="D75" r:id="rId145"/>
+    <hyperlink ref="E75" r:id="rId146"/>
+    <hyperlink ref="D76" r:id="rId147"/>
+    <hyperlink ref="E76" r:id="rId148"/>
+    <hyperlink ref="D77" r:id="rId149"/>
+    <hyperlink ref="E77" r:id="rId150"/>
+    <hyperlink ref="D78" r:id="rId151"/>
+    <hyperlink ref="E78" r:id="rId152"/>
+    <hyperlink ref="D79" r:id="rId153"/>
+    <hyperlink ref="E79" r:id="rId154"/>
+    <hyperlink ref="D80" r:id="rId155"/>
+    <hyperlink ref="E80" r:id="rId156"/>
+    <hyperlink ref="D81" r:id="rId157"/>
+    <hyperlink ref="E81" r:id="rId158"/>
+    <hyperlink ref="D82" r:id="rId159"/>
+    <hyperlink ref="E82" r:id="rId160"/>
+    <hyperlink ref="D83" r:id="rId161"/>
+    <hyperlink ref="E83" r:id="rId162"/>
+    <hyperlink ref="D84" r:id="rId163"/>
+    <hyperlink ref="E84" r:id="rId164"/>
+    <hyperlink ref="D85" r:id="rId165"/>
+    <hyperlink ref="E85" r:id="rId166"/>
+    <hyperlink ref="D86" r:id="rId167"/>
+    <hyperlink ref="E86" r:id="rId168"/>
+    <hyperlink ref="D87" r:id="rId169"/>
+    <hyperlink ref="E87" r:id="rId170"/>
+    <hyperlink ref="D88" r:id="rId171"/>
+    <hyperlink ref="E88" r:id="rId172"/>
+    <hyperlink ref="D89" r:id="rId173"/>
+    <hyperlink ref="E89" r:id="rId174"/>
+    <hyperlink ref="D90" r:id="rId175"/>
+    <hyperlink ref="E90" r:id="rId176"/>
+    <hyperlink ref="D91" r:id="rId177"/>
+    <hyperlink ref="E91" r:id="rId178"/>
+    <hyperlink ref="D92" r:id="rId179"/>
+    <hyperlink ref="E92" r:id="rId180"/>
+    <hyperlink ref="D93" r:id="rId181"/>
+    <hyperlink ref="E93" r:id="rId182"/>
+    <hyperlink ref="D94" r:id="rId183"/>
+    <hyperlink ref="E94" r:id="rId184"/>
+    <hyperlink ref="D95" r:id="rId185"/>
+    <hyperlink ref="E95" r:id="rId186"/>
+    <hyperlink ref="D96" r:id="rId187"/>
+    <hyperlink ref="E96" r:id="rId188"/>
+    <hyperlink ref="D97" r:id="rId189"/>
+    <hyperlink ref="E97" r:id="rId190"/>
+    <hyperlink ref="D98" r:id="rId191"/>
+    <hyperlink ref="E98" r:id="rId192"/>
+    <hyperlink ref="D99" r:id="rId193"/>
+    <hyperlink ref="E99" r:id="rId194"/>
+    <hyperlink ref="D100" r:id="rId195"/>
+    <hyperlink ref="E100" r:id="rId196"/>
+    <hyperlink ref="D101" r:id="rId197"/>
+    <hyperlink ref="E101" r:id="rId198"/>
+    <hyperlink ref="D102" r:id="rId199"/>
+    <hyperlink ref="E102" r:id="rId200"/>
+    <hyperlink ref="D103" r:id="rId201"/>
+    <hyperlink ref="E103" r:id="rId202"/>
+    <hyperlink ref="D104" r:id="rId203"/>
+    <hyperlink ref="E104" r:id="rId204"/>
+    <hyperlink ref="D105" r:id="rId205"/>
+    <hyperlink ref="E105" r:id="rId206"/>
+    <hyperlink ref="D106" r:id="rId207"/>
+    <hyperlink ref="E106" r:id="rId208"/>
+    <hyperlink ref="D107" r:id="rId209"/>
+    <hyperlink ref="E107" r:id="rId210"/>
+    <hyperlink ref="D108" r:id="rId211"/>
+    <hyperlink ref="E108" r:id="rId212"/>
+    <hyperlink ref="D109" r:id="rId213"/>
+    <hyperlink ref="E109" r:id="rId214"/>
+    <hyperlink ref="D110" r:id="rId215"/>
+    <hyperlink ref="E110" r:id="rId216"/>
+    <hyperlink ref="D111" r:id="rId217"/>
+    <hyperlink ref="E111" r:id="rId218"/>
+    <hyperlink ref="D112" r:id="rId219"/>
+    <hyperlink ref="D113" r:id="rId220"/>
+    <hyperlink ref="D114" r:id="rId221"/>
+    <hyperlink ref="D115" r:id="rId222"/>
+    <hyperlink ref="E115" r:id="rId223"/>
+    <hyperlink ref="D116" r:id="rId224"/>
+    <hyperlink ref="E116" r:id="rId225"/>
+    <hyperlink ref="D117" r:id="rId226"/>
+    <hyperlink ref="E117" r:id="rId227"/>
+    <hyperlink ref="D118" r:id="rId228"/>
+    <hyperlink ref="E118" r:id="rId229"/>
+    <hyperlink ref="D119" r:id="rId230"/>
+    <hyperlink ref="E119" r:id="rId231"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
